--- a/appconfig/data/Subtypes.xlsx
+++ b/appconfig/data/Subtypes.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Subtypes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>min_interval</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-20</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -460,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,10 +474,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -496,13 +496,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -538,24 +538,24 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -574,60 +574,57 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -636,18 +633,85 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>50</v>
+      <c r="C22">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
